--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_240.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_240.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_297</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2580971659919029</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.525011, 16.557573)]</t>
+          <t>[['B', 'F#', 'B', 'F#', 'B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(105.0, 108.84)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.421247', '0:00:04.917554')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:02:31.259637', '0:02:37.900544')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1217948717948718</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F/5', 'C:maj'], ['F:maj', 'G', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1833333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C'], ['F', 'G', 'A']]</t>
+          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.619, 16.742), (32.808, 36.091)]</t>
+          <t>[['C:7', 'F:min', 'C:maj'], ['F:maj', 'A#:maj', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(16.17907, 21.844739), (25.606371, 34.801473)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:37.120000', '0:00:40.060000'), ('0:01:15.520000', '0:01:19.700000'), ('0:00:10.260000', '0:00:15.940000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:13.900000', '0:00:18.820000'), ('0:02:08.760000', '0:02:13.560000'), ('0:00:01.180000', '0:00:06.140000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2259615384615385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1202898550724638</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min', 'A#:min'], ['A#', 'A#/F', 'F:7', 'A#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(81.28, 89.42)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min'], ['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(11.7, 20.02)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:24.680000', '0:00:31.240000'), ('0:04:29.700000', '0:04:35.780000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:02.860000', '0:00:07.500000'), ('0:00:19.200000', '0:00:21.840000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1420265780730897</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3314393939393939</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(2.156928, 7.265318)]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(57.401473, 64.808639)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1238738738738739</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>isophonics_87</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_218</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1286337209302326</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['E:7', 'A', 'D'], ['A', 'D', 'B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64)]</t>
+          <t>[['G:7', 'C', 'F'], ['C', 'F', 'D/3']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(144.085784, 149.240614)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:06.427052', '0:01:11.593492'), ('0:01:01.237392', '0:01:06.427052')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:35.997000', '0:00:42.131000'), ('0:00:06.783000', '0:00:09.640000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2730769230769231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.875</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(31.46941, 118.925813)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(37.74, 40.64), (254.26, 257.98)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(35.62, 41.54), (1.46, 9.84)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(65.44, 66.82), (63.6, 66.04)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(68.64, 77.38), (16.82, 23.18)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:02:08.760000', '0:02:13.560000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4356060606060606</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['B', 'E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(70.06, 80.28), (16.92, 23.9)]</t>
+          <t>[['B', 'E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(65.44, 66.82), (63.6, 66.04)]</t>
+          <t>[('0:00:27.840748', '0:00:44.245646')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:17.942016', '0:00:27.485418')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2410714285714286</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'D/3', 'D:7/2']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'B:maj', 'B:7']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(36.40526, 40.062403)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(136.88, 146.26)]</t>
+          <t>[('0:01:11.640000', '0:01:19.220000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.675</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(124.92, 128.84)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(57.251357, 73.909779)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2534722222222222</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(20.04, 23.45)]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(10.46, 20.82)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:04.280000', '0:01:11')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C/3', 'F', 'C/3', 'F']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(154.02, 160.38)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(76.585782, 78.536258)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1507352941176471</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'B:9', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:9', 'C:maj/G']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(33.711833, 42.407706)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(55.3, 59.54)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2232142857142857</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(63.56, 70.96)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(2.252358, 5.805011)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_31</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3794871794871795</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(30.02, 44.28)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(68.08, 87.32)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
